--- a/project files/Timeplan.xlsx
+++ b/project files/Timeplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1F48C-546B-1440-88F6-9C4E20B8C077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727F366-6043-F04F-8D9A-815D950003EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1080" windowWidth="22940" windowHeight="14900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meilensteine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Erstellen Sie einen Leitplan, indem Sie wichtige Meilensteine und Aktivitäten auf diesem Arbeitsblatt eingeben.
 Der Titel dieses Arbeitsblatts befindet sich in Zelle C1. 
@@ -209,17 +209,17 @@
     <t>Coaching 3</t>
   </si>
   <si>
+    <t>Integration of emails
+Customer journey</t>
+  </si>
+  <si>
+    <t>Testng
+Finalization of presentation</t>
+  </si>
+  <si>
     <t>User story
 Adjustment of forms
-ChatPot</t>
-  </si>
-  <si>
-    <t>Integration of emails
-Customer journey</t>
-  </si>
-  <si>
-    <t>Testng
-Finalization of presentation</t>
+Chatbot</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E2236E0-0BEC-434A-B6EF-B961F51AFFC7}" type="CELLRANGE">
+                    <a:fld id="{30083042-9D0D-5548-A772-9148FB7E8E09}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +1189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FBBBF3B-BD91-254E-955D-3142290C299F}" type="CELLRANGE">
+                    <a:fld id="{1FE77EE0-B0A8-8742-BE27-D2B565C85A18}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1295,8 +1295,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.4508310908811441E-2"/>
-                  <c:y val="2.4321796071094481E-2"/>
+                  <c:x val="-6.7662632774929982E-2"/>
+                  <c:y val="2.6192703461178673E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1336,7 +1336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2991B3D8-00A5-3447-8141-1DDA76DCD108}" type="CELLRANGE">
+                    <a:fld id="{A4A74B77-8403-EA49-A7B0-0DDCAE8110F3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1407,7 +1407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33B58BDE-C4BD-4147-81B9-B0EB928E99F0}" type="CELLRANGE">
+                    <a:fld id="{8B97A108-27DC-7641-8489-6DCD2D7ED0EB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1479,7 +1479,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:fld id="{34F418B1-4561-1648-BD6C-236ED1BA07C6}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1496,7 +1496,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1511,7 +1510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60B105A9-0A80-C749-B42B-9F658484CD5A}" type="CELLRANGE">
+                    <a:fld id="{0CF881FC-F252-D34F-AE56-8655D5392D31}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1619,14 +1618,14 @@
 As-Is Process</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Modelling of Process
-Definition of Variables</c:v>
+                    <c:v>SIPOC analysis</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coaching 1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>SIPOC analysis</c:v>
+                    <c:v>Modelling of Process
+Definition of Variables</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Follow-up 
@@ -1641,7 +1640,7 @@
                   <c:pt idx="8">
                     <c:v>User story
 Adjustment of forms
-ChatPot</c:v>
+Chatbot</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Coaching 3</c:v>
@@ -1758,14 +1757,14 @@
 As-Is Process</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Modelling of Process
-Definition of Variables</c:v>
+                    <c:v>SIPOC analysis</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coaching 1</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>SIPOC analysis</c:v>
+                    <c:v>Modelling of Process
+Definition of Variables</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Follow-up 
@@ -1780,7 +1779,7 @@
                   <c:pt idx="8">
                     <c:v>User story
 Adjustment of forms
-ChatPot</c:v>
+Chatbot</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Coaching 3</c:v>
@@ -3659,7 +3658,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3834,7 +3833,7 @@
         <v>43594</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3864,7 +3863,7 @@
         <v>43601</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3879,7 +3878,7 @@
         <v>43608</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3946,7 +3945,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4078,7 +4077,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4154,10 +4153,8 @@
         <f>Meilensteine!D5</f>
         <v>43559</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f>Meilensteine!E5</f>
-        <v>Modelling of Process
-Definition of Variables</v>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="27">
         <f>Meilensteine!C5</f>
@@ -4183,9 +4180,8 @@
         <f>Meilensteine!D7</f>
         <v>43566</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>Meilensteine!E7</f>
-        <v>SIPOC analysis</v>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="27">
         <f>Meilensteine!C7</f>
@@ -4244,7 +4240,7 @@
         <f>Meilensteine!E11</f>
         <v>User story
 Adjustment of forms
-ChatPot</v>
+Chatbot</v>
       </c>
       <c r="D12" s="27">
         <f>Meilensteine!C11</f>

--- a/project files/Timeplan.xlsx
+++ b/project files/Timeplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E727F366-6043-F04F-8D9A-815D950003EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCDD1BB-CA53-8044-9BB1-4A62C544BA2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meilensteine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Erstellen Sie einen Leitplan, indem Sie wichtige Meilensteine und Aktivitäten auf diesem Arbeitsblatt eingeben.
 Der Titel dieses Arbeitsblatts befindet sich in Zelle C1. 
@@ -193,9 +193,6 @@
 Definition of Variables</t>
   </si>
   <si>
-    <t>SIPOC analysis</t>
-  </si>
-  <si>
     <t>Follow-up 
 Assignment of tasks</t>
   </si>
@@ -209,17 +206,25 @@
     <t>Coaching 3</t>
   </si>
   <si>
-    <t>Integration of emails
+    <t xml:space="preserve">Integration of emails
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIPOC analysis
+Customer journey </t>
+  </si>
+  <si>
+    <t>SIPOC analysis
 Customer journey</t>
   </si>
   <si>
-    <t>Testng
-Finalization of presentation</t>
-  </si>
-  <si>
-    <t>User story
+    <t xml:space="preserve">
 Adjustment of forms
 Chatbot</t>
+  </si>
+  <si>
+    <t>Testing
+Finalization of presentation</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30083042-9D0D-5548-A772-9148FB7E8E09}" type="CELLRANGE">
+                    <a:fld id="{0D421704-108E-3940-928B-0C5AC3A0DEFE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1119,7 +1124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3827D64-FD0F-EB4D-8F6A-4C7623974344}" type="CELLRANGE">
+                    <a:fld id="{D03B6533-7ACA-1D4C-8817-B83FF36672BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1157,7 +1162,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14B83154-3E30-0C4E-AFDB-307B6A569149}" type="CELLRANGE">
+                    <a:fld id="{C95AAED0-F84F-2543-82AC-91AC90BC0A2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1189,7 +1194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FE77EE0-B0A8-8742-BE27-D2B565C85A18}" type="CELLRANGE">
+                    <a:fld id="{C23AF58F-8473-7F43-ACB5-4160E709C35B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1228,7 +1233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0662D30D-7743-CD45-B06E-7D8C1A5C09FE}" type="CELLRANGE">
+                    <a:fld id="{F84803C7-4A01-DD49-87DC-AF877AB6F74E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1266,7 +1271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{670DFC1C-2D80-B947-BB91-35B5A1AA6372}" type="CELLRANGE">
+                    <a:fld id="{8364EA4C-63F5-A441-8862-F1143F8F2AF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1304,7 +1309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B4E553D-E31C-984B-8CC1-953BFC5190DD}" type="CELLRANGE">
+                    <a:fld id="{F5C30568-C907-7B4A-B2CC-24999E249277}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1336,7 +1341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4A74B77-8403-EA49-A7B0-0DDCAE8110F3}" type="CELLRANGE">
+                    <a:fld id="{498FB9EB-5216-894C-A280-95BDC17D4548}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1375,7 +1380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04CC511B-1C70-E044-BDEB-581A60989BDC}" type="CELLRANGE">
+                    <a:fld id="{DB3F1000-A2E3-4440-84B9-D924767E4743}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1407,7 +1412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B97A108-27DC-7641-8489-6DCD2D7ED0EB}" type="CELLRANGE">
+                    <a:fld id="{AC9EE063-99CE-1346-AF32-6EAD3E4CA4F9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1446,7 +1451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DD1AD61-1946-0248-A1F7-9E36CB97B811}" type="CELLRANGE">
+                    <a:fld id="{FDA1FB05-5319-5146-82BD-540AAEAEC112}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1478,8 +1483,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34F418B1-4561-1648-BD6C-236ED1BA07C6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{86F5B15C-A519-E448-9C0F-ABAD1EA7732A}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1496,6 +1501,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1510,7 +1516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CF881FC-F252-D34F-AE56-8655D5392D31}" type="CELLRANGE">
+                    <a:fld id="{45F6FFCB-2D1A-CC47-B2B7-CC7B453A4EE8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1618,7 +1624,8 @@
 As-Is Process</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SIPOC analysis</c:v>
+                    <c:v>SIPOC analysis
+Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coaching 1</c:v>
@@ -1638,7 +1645,7 @@
                     <c:v>Coaching 2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>User story
+                    <c:v>
 Adjustment of forms
 Chatbot</c:v>
                   </c:pt>
@@ -1647,7 +1654,7 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>Integration of emails
-Customer journey</c:v>
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -1757,7 +1764,8 @@
 As-Is Process</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>SIPOC analysis</c:v>
+                    <c:v>SIPOC analysis
+Customer journey</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Coaching 1</c:v>
@@ -1777,7 +1785,7 @@
                     <c:v>Coaching 2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>User story
+                    <c:v>
 Adjustment of forms
 Chatbot</c:v>
                   </c:pt>
@@ -1786,7 +1794,7 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>Integration of emails
-Customer journey</c:v>
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>00.01.00</c:v>
@@ -3658,7 +3666,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3761,7 +3769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <f>ROW($A5)</f>
         <v>5</v>
@@ -3773,7 +3781,7 @@
         <v>43566</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3788,7 +3796,7 @@
         <v>43580</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3803,7 +3811,7 @@
         <v>43587</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.15">
@@ -3818,7 +3826,7 @@
         <v>43594</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.15">
@@ -3848,7 +3856,7 @@
         <v>43601</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3863,7 +3871,7 @@
         <v>43601</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.15">
@@ -3878,7 +3886,7 @@
         <v>43608</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3944,7 +3952,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4076,7 +4084,7 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4154,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D6" s="27">
         <f>Meilensteine!C5</f>
@@ -4238,7 +4246,7 @@
       </c>
       <c r="C12" s="6" t="str">
         <f>Meilensteine!E11</f>
-        <v>User story
+        <v xml:space="preserve">
 Adjustment of forms
 Chatbot</v>
       </c>
@@ -4268,8 +4276,8 @@
       </c>
       <c r="C14" s="6" t="str">
         <f>Meilensteine!E13</f>
-        <v>Integration of emails
-Customer journey</v>
+        <v xml:space="preserve">Integration of emails
+</v>
       </c>
       <c r="D14" s="27">
         <f>Meilensteine!C13</f>
